--- a/data/siRNA_bench/VectorBuilder_siRNA_KIT_jbst.xlsx
+++ b/data/siRNA_bench/VectorBuilder_siRNA_KIT_jbst.xlsx
@@ -523,12 +523,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RNAi_3</t>
+          <t>RNAi_2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AATAAACCTCAAGTCCTTGGG</t>
+          <t>ATAATTGGTCACTTCTGGGTC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['AATAAACCTCAAGTCCTTGGG']</t>
+          <t>['ATAATTGGTCACTTCTGGGTC']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CCCAAGGACTTGAGGTTTATT</t>
+          <t>GACCCAGAAGTGACCAATTAT</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -591,21 +591,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>24.05</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNAi_8</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATTTATCAGTGAAGGTTCTGT</t>
+          <t>ATATTTCTCCTGTAGTTTAGT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['ATTTATCAGTGAAGGTTCTGT']</t>
+          <t>['ATATTTCTCCTGTAGTTTAGT']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ACAGAACCTTCACTGATAAAT</t>
+          <t>ACTAAACTACAGGAGAAATAT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -668,21 +668,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.81</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RNAi_2</t>
+          <t>RNAi_3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATAATTGGTCACTTCTGGGTC</t>
+          <t>AATAAACCTCAAGTCCTTGGG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['ATAATTGGTCACTTCTGGGTC']</t>
+          <t>['AATAAACCTCAAGTCCTTGGG']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -725,15 +725,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('CAAG', 'GTTC')]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>GACCCAGAAGTGACCAATTAT</t>
+          <t>CCCAAGGACTTGAGGTTTATT</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.81</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATATTTCTCCTGTAGTTTAGT</t>
+          <t>ATATTACTTTCATTCTCAGAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ATATTTCTCCTGTAGTTTAGT']</t>
+          <t>['ATATTACTTTCATTCTCAGAC']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -802,15 +802,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('TCT', 'AGA')]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ACTAAACTACAGGAGAAATAT</t>
+          <t>GTCTGAGAATGAAAGTAATAT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TTTAATCTCGTTAGATGAAGT</t>
+          <t>TTTATTGTGCACGTCACTGTG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['TTTAATCTCGTTAGATGAAGT']</t>
+          <t>['TTTATTGTGCACGTCACTGTG']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['TTAA']</t>
+          <t>[('CAC', 'GTG'), ('GTG', 'CAC')]</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ACTTCATCTAACGAGATTAAA</t>
+          <t>CACAGTGACGTGCACAATAAA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>21.05</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATATTACTTTCATTCTCAGAC</t>
+          <t>TTTAATCTCGTTAGATGAAGT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['ATATTACTTTCATTCTCAGAC']</t>
+          <t>['TTTAATCTCGTTAGATGAAGT']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['ATAT']</t>
+          <t>[('TAA', 'ATT'), ('ATCT', 'TAGA')]</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>GTCTGAGAATGAAAGTAATAT</t>
+          <t>ACTTCATCTAACGAGATTAAA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.76</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="8">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['AATT']</t>
+          <t>[('TCAC', 'AGTG'), ('TGA', 'ACT')]</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1056,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>26.81</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="9">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('TTAT', 'AATA'), ('CAT', 'GTA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1133,18 +1133,18 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.29</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TTTATTGTGCACGTCACTGTG</t>
+          <t>ATAAATGGAATTGCTTAAGCC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TTTATTGTGCACGTCACTGTG']</t>
+          <t>['ATAAATGGAATTGCTTAAGCC']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,15 +1187,15 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['ACGT', 'TGCA', 'GTGCAC']</t>
+          <t>[('TAA', 'ATT'), ('AAT', 'TTA'), ('GCTT', 'CGAA')]</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CACAGTGACGTGCACAATAAA</t>
+          <t>GGCTTAAGCAATTCCATTTAT</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.81</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_1</t>
+          <t>RNAi_8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAAATGGAATTGCTTAAGCC</t>
+          <t>ATTTATCAGTGAAGGTTCTGT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ATAAATGGAATTGCTTAAGCC']</t>
+          <t>['ATTTATCAGTGAAGGTTCTGT']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['AATT', 'GCTTAAGC', 'CTTAAG', 'TTAA']</t>
+          <t>[('CAG', 'GTC'), ('TCA', 'AGT'), ('GAA', 'CTT')]</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.047619047619048</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>GGCTTAAGCAATTCCATTTAT</t>
+          <t>ACAGAACCTTCACTGATAAAT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.05</v>
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
